--- a/Projects/CCNAYARMX/Especializado/Data/CCNayar_POS_Options_Especializado_v4.xlsx
+++ b/Projects/CCNAYARMX/Especializado/Data/CCNayar_POS_Options_Especializado_v4.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="65">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">Assortment 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assortment 4</t>
   </si>
   <si>
     <t xml:space="preserve">¿Tiene Copete y Cenefas-Hidratación?</t>
@@ -466,35 +463,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O65536"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A64" activeCellId="0" sqref="A64"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="N1" activeCellId="0" sqref="N1"/>
+      <selection pane="bottomLeft" activeCell="O1" activeCellId="0" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="51.7407407407407"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="29.4"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="40.7666666666667"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="33.6111111111111"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="33.1222222222222"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="24.8888888888889"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="37.6296296296296"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.0481481481481"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="27.9296296296296"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="126.411111111111"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="152.281481481481"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="96.6222222222222"/>
-    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="112.985185185185"/>
-    <col collapsed="false" hidden="false" max="16" min="16" style="1" width="21.1666666666667"/>
-    <col collapsed="false" hidden="false" max="1025" min="17" style="1" width="11.562962962963"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="53.0148148148148"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="30.0851851851852"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="41.8444444444444"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="34.3962962962963"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="33.9074074074074"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="25.4777777777778"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="38.5111111111111"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="2" width="22.537037037037"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="2" width="28.6148148148148"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="129.644444444444"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="1" width="156.203703703704"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="1" width="99.0703703703704"/>
+    <col collapsed="false" hidden="false" max="15" min="15" style="1" width="21.6555555555556"/>
+    <col collapsed="false" hidden="false" max="1023" min="16" style="1" width="11.8555555555556"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -537,180 +533,167 @@
       <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="44" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="68" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+      <c r="B2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" customFormat="false" ht="29.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" customFormat="false" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="N3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="I4" s="6" t="s">
         <v>40</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>41</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N4" s="6" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="72.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" customFormat="false" ht="102" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="E5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="F5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>49</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>50</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="N5" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -735,15 +718,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="32.437037037037"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="26.9481481481481"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.0814814814815"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="30.3777777777778"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.0444444444444"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.2851851851852"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.3666666666667"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="31.4555555555556"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.2703703703704"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="33.2185185185185"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="27.537037037037"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="35.962962962963"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.162962962963"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="32.8296296296296"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="20.7740740740741"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="16.7555555555556"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="32.2407407407407"/>
+    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.562962962963"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -751,116 +734,116 @@
         <v>1</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D2" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E2" s="11"/>
       <c r="F2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2" s="11"/>
       <c r="H2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="C3" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="11"/>
       <c r="H3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="7" t="n">
         <v>12</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
     </row>
     <row r="5" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E5" s="11"/>
       <c r="F5" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7" t="n">
         <v>8</v>
@@ -872,13 +855,13 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>62</v>
-      </c>
       <c r="C7" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7" t="n">
         <v>8</v>
@@ -890,13 +873,13 @@
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="n">
         <v>10</v>
@@ -908,13 +891,13 @@
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="7" t="n">
         <v>8</v>
@@ -926,13 +909,13 @@
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7" t="n">
         <v>12</v>
@@ -944,13 +927,13 @@
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7" t="n">
         <v>10</v>
@@ -962,13 +945,13 @@
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7" t="n">
         <v>10</v>
@@ -977,18 +960,18 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" s="7" t="n">
         <v>8</v>
@@ -997,18 +980,18 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14" s="7" t="n">
         <v>12</v>
@@ -1017,18 +1000,18 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="n">
         <v>10</v>
@@ -1037,24 +1020,24 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="7" t="n">
@@ -1064,19 +1047,19 @@
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="7" t="n">
         <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F17" s="12"/>
       <c r="G17" s="7" t="n">
@@ -1086,19 +1069,19 @@
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" s="7" t="n">
         <v>12</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="7" t="n">
@@ -1108,19 +1091,19 @@
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="7" t="n">
         <v>10</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F19" s="12"/>
       <c r="G19" s="7" t="n">
@@ -1130,13 +1113,13 @@
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7" t="n">
         <v>10</v>
@@ -1148,13 +1131,13 @@
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7" t="n">
         <v>8</v>
@@ -1166,13 +1149,13 @@
     </row>
     <row r="22" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7" t="n">
         <v>12</v>
@@ -1184,13 +1167,13 @@
     </row>
     <row r="23" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="7" t="n">
         <v>10</v>
